--- a/azmoon_5_participant.xlsx
+++ b/azmoon_5_participant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,6 @@
           <t>mellicode</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>semat</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -459,27 +454,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mohsen</t>
+          <t>mohammadhosein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasani</t>
+          <t>hasnai</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09123981203</t>
+          <t>09100069381</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3242342342</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>daneshamoz</t>
+          <t>0025109391</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sajjad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>rasooli</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09109283091</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0012381923</t>
         </is>
       </c>
     </row>
